--- a/room/待采购.xlsx
+++ b/room/待采购.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangweichao/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangweichao/application/2021/decoration/room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C11E279-09F9-C749-AA8E-4FEF9B16449F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCB5B1A-DC25-E54B-8A76-C70E5E22AEBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35160" yWindow="2360" windowWidth="28240" windowHeight="17440" xr2:uid="{B324171B-4FDE-5849-A9E7-58EBE0B249C1}"/>
   </bookViews>
@@ -194,7 +194,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -235,10 +235,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="14"/>
-      <color theme="1"/>
+      <color theme="2" tint="-0.499984740745262"/>
       <name val="等线"/>
-      <family val="2"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -265,11 +273,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -278,10 +289,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -600,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63150C27-C6BB-DE4E-9354-BF2ACA7EC8B6}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="54.83203125" defaultRowHeight="51" customHeight="1"/>
@@ -611,58 +625,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="51" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="51" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="51" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="51" customHeight="1">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:5" s="6" customFormat="1" ht="51" customHeight="1">
+      <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="5">
         <v>349</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="51" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -676,46 +690,46 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="51" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="51" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="51" customHeight="1">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="51" customHeight="1">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:5" ht="51" customHeight="1">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="51" customHeight="1">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:5" ht="51" customHeight="1">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="2">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -729,10 +743,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="51" customHeight="1">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -746,10 +760,10 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="51" customHeight="1">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="2">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -763,10 +777,10 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="51" customHeight="1">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="2">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -780,10 +794,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="51" customHeight="1">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="2">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -797,10 +811,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="51" customHeight="1">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="2">
         <v>88</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -811,21 +825,21 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="51" customHeight="1">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:5" ht="51" customHeight="1">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="51" customHeight="1">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="1">
@@ -842,7 +856,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="51" customHeight="1">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="1">
